--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,70 +438,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Dato og klokkeslet</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unix timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45233.42814775377</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1699002991.965926</v>
+      <c r="A2" s="2" t="n">
+        <v>45233.54641382611</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1699013210.154576</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45233.42815344594</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1699002992.457729</v>
+      <c r="A3" s="2" t="n">
+        <v>45233.5464195051</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1699013210.64524</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45233.42815812729</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1699002992.862198</v>
+      <c r="A4" s="2" t="n">
+        <v>45233.54642224036</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1699013210.881567</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45233.42816221812</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1699002993.215645</v>
+      <c r="A5" s="2" t="n">
+        <v>45233.54642408899</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1699013211.041289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45233.42816696587</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1699002993.625851</v>
+      <c r="A6" s="2" t="n">
+        <v>45233.54642648647</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1699013211.248431</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4cf22aa3470f28/Documents/GitHub/MekRelLab/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_496DA2D707605CBF6E05E4D4475986F8B625897C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4729F512-1A4A-49BB-A58C-CF2876B168DA}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Dato og klokkeslet</t>
+  </si>
+  <si>
+    <t>Unix timestamp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +66,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,69 +391,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dato og klokkeslet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unix timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45233.54641382611</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1699013210.154576</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45233.5464195051</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1699013210.64524</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45233.54642224036</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1699013210.881567</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45233.54642408899</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1699013211.041289</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45233.54642648647</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1699013211.248431</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45236.351504629631</v>
+      </c>
+      <c r="B2">
+        <v>1699255569.94609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45236.351514947302</v>
+      </c>
+      <c r="B3">
+        <v>1699255570.8914471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45236.35152019449</v>
+      </c>
+      <c r="B4">
+        <v>1699255571.344804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45236.35152227123</v>
+      </c>
+      <c r="B5">
+        <v>1699255571.5242341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45236.351524636768</v>
+      </c>
+      <c r="B6">
+        <v>1699255571.728617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45236.351526086481</v>
+      </c>
+      <c r="B7">
+        <v>1699255571.8538721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45236.351527780032</v>
+      </c>
+      <c r="B8">
+        <v>1699255572.000195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45236.351530180596</v>
+      </c>
+      <c r="B9">
+        <v>1699255572.2076039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45236.351531583852</v>
+      </c>
+      <c r="B10">
+        <v>1699255572.328845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45236.351533260378</v>
+      </c>
+      <c r="B11">
+        <v>1699255572.4736969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45236.351535157373</v>
+      </c>
+      <c r="B12">
+        <v>1699255572.6375971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45236.351570299223</v>
+      </c>
+      <c r="B13">
+        <v>1699255575.673852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45236.351573230269</v>
+      </c>
+      <c r="B14">
+        <v>1699255575.9270949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45236.351575007058</v>
+      </c>
+      <c r="B15">
+        <v>1699255576.08061</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4cf22aa3470f28/Documents/GitHub/MekRelLab/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_496DA2D707605CBF6E05E4D4475986F8B625897C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4729F512-1A4A-49BB-A58C-CF2876B168DA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Dato og klokkeslet</t>
-  </si>
-  <si>
-    <t>Unix timestamp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,137 +424,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dato og klokkeslet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unix timestamp</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>45236.351504629631</v>
-      </c>
-      <c r="B2">
-        <v>1699255569.94609</v>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45236.48068392088</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1699266731.090764</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45236.351514947302</v>
-      </c>
-      <c r="B3">
-        <v>1699255570.8914471</v>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45236.48070582261</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1699266732.983074</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>45236.35152019449</v>
-      </c>
-      <c r="B4">
-        <v>1699255571.344804</v>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45236.48071736901</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1699266733.980683</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45236.35152227123</v>
-      </c>
-      <c r="B5">
-        <v>1699255571.5242341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45236.351524636768</v>
-      </c>
-      <c r="B6">
-        <v>1699255571.728617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>45236.351526086481</v>
-      </c>
-      <c r="B7">
-        <v>1699255571.8538721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>45236.351527780032</v>
-      </c>
-      <c r="B8">
-        <v>1699255572.000195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>45236.351530180596</v>
-      </c>
-      <c r="B9">
-        <v>1699255572.2076039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>45236.351531583852</v>
-      </c>
-      <c r="B10">
-        <v>1699255572.328845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>45236.351533260378</v>
-      </c>
-      <c r="B11">
-        <v>1699255572.4736969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>45236.351535157373</v>
-      </c>
-      <c r="B12">
-        <v>1699255572.6375971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>45236.351570299223</v>
-      </c>
-      <c r="B13">
-        <v>1699255575.673852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>45236.351573230269</v>
-      </c>
-      <c r="B14">
-        <v>1699255575.9270949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>45236.351575007058</v>
-      </c>
-      <c r="B15">
-        <v>1699255576.08061</v>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45236.48071980317</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1699266734.190994</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,34 +451,130 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45236.48068392088</v>
+        <v>45236.49702987329</v>
       </c>
       <c r="B2" t="n">
-        <v>1699266731.090764</v>
+        <v>1699268143.381052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45236.48070582261</v>
+        <v>45236.49703368387</v>
       </c>
       <c r="B3" t="n">
-        <v>1699266732.983074</v>
+        <v>1699268143.710287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45236.48071736901</v>
+        <v>45236.49703737022</v>
       </c>
       <c r="B4" t="n">
-        <v>1699266733.980683</v>
+        <v>1699268144.028787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45236.48071980317</v>
+        <v>45236.49704123484</v>
       </c>
       <c r="B5" t="n">
-        <v>1699266734.190994</v>
+        <v>1699268144.36269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45236.49704959732</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1699268145.085208</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45236.49705421793</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1699268145.484429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45236.49705841397</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1699268145.846967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45236.49706307644</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1699268146.249804</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45236.49706825822</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1699268146.69751</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45236.4970730823</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1699268147.114311</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45236.49707778963</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1699268147.521024</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45236.49708304507</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1699268147.975094</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45236.4970893173</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1699268148.517015</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45236.49709298828</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1699268148.834188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45236.49709552526</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1699268149.053382</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45236.49709853641</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1699268149.313546</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,141 +436,23 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dato og klokkeslet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unix timestamp</t>
+          <t>Delta_times</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45236.49702987329</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1699268143.381052</v>
+      <c r="A2" t="n">
+        <v>0.2277212142944336</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45236.49703368387</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1699268143.710287</v>
+      <c r="A3" t="n">
+        <v>0.2819628715515137</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45236.49703737022</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1699268144.028787</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45236.49704123484</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1699268144.36269</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45236.49704959732</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1699268145.085208</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45236.49705421793</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1699268145.484429</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45236.49705841397</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1699268145.846967</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45236.49706307644</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1699268146.249804</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45236.49706825822</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1699268146.69751</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45236.4970730823</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1699268147.114311</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45236.49707778963</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1699268147.521024</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45236.49708304507</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1699268147.975094</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45236.4970893173</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1699268148.517015</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45236.49709298828</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1699268148.834188</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45236.49709552526</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1699268149.053382</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45236.49709853641</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1699268149.313546</v>
+      <c r="A4" t="n">
+        <v>0.2927169799804688</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,23 +440,117 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Delta_times</t>
+          <t>Dato og klokkeslet</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unix timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.2277212142944336</v>
+      <c r="A2" s="2" t="n">
+        <v>45239.4758463379</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1699525513.123595</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.2819628715515137</v>
+      <c r="A3" s="2" t="n">
+        <v>45239.47585952455</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1699525514.262921</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.2927169799804688</v>
+      <c r="A4" s="2" t="n">
+        <v>45239.4758667502</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1699525514.887217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45239.47587592401</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1699525515.679834</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45239.47588020933</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1699525516.050086</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45239.47588422846</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1699525516.397339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45239.47593526426</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1699525520.806832</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45239.47594182975</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1699525521.37409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45239.47594877051</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1699525521.973772</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45239.47595504396</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1699525522.515798</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45239.4759609657</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1699525523.027436</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45239.47596679523</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1699525523.531108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45239.47597260418</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1699525524.033001</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,106 +451,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45239.4758463379</v>
+        <v>45239.60290364396</v>
       </c>
       <c r="B2" t="n">
-        <v>1699525513.123595</v>
+        <v>1699536490.87483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45239.47585952455</v>
+        <v>45239.6029209604</v>
       </c>
       <c r="B3" t="n">
-        <v>1699525514.262921</v>
+        <v>1699536492.370971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45239.4758667502</v>
+        <v>45239.60292799863</v>
       </c>
       <c r="B4" t="n">
-        <v>1699525514.887217</v>
+        <v>1699536492.979072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45239.47587592401</v>
+        <v>45239.60293620105</v>
       </c>
       <c r="B5" t="n">
-        <v>1699525515.679834</v>
+        <v>1699536493.687763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45239.47588020933</v>
+        <v>45239.60294332544</v>
       </c>
       <c r="B6" t="n">
-        <v>1699525516.050086</v>
+        <v>1699536494.30331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45239.47588422846</v>
+        <v>45239.60295051202</v>
       </c>
       <c r="B7" t="n">
-        <v>1699525516.397339</v>
+        <v>1699536494.924228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45239.47593526426</v>
+        <v>45239.60296076423</v>
       </c>
       <c r="B8" t="n">
-        <v>1699525520.806832</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45239.47594182975</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1699525521.37409</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45239.47594877051</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1699525521.973772</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45239.47595504396</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1699525522.515798</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45239.4759609657</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1699525523.027436</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45239.47596679523</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1699525523.531108</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45239.47597260418</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1699525524.033001</v>
+        <v>1699536495.810023</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,58 +451,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45239.60290364396</v>
+        <v>45239.65928524017</v>
       </c>
       <c r="B2" t="n">
-        <v>1699536490.87483</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45239.6029209604</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1699536492.370971</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45239.60292799863</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1699536492.979072</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45239.60293620105</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1699536493.687763</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45239.60294332544</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1699536494.30331</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45239.60295051202</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1699536494.924228</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45239.60296076423</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1699536495.810023</v>
+        <v>1699541362.244733</v>
       </c>
     </row>
   </sheetData>
